--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -851,7 +851,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>PIGGLY WIGGLY #210, MILTON</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -908,7 +908,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #210, MILTON</t>
+          <t>727 S JANESVILLE ST</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -965,7 +965,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>727 S JANESVILLE ST</t>
+          <t>https://goo.gl/maps/nWMvQurCakN2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nWMvQurCakN2</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -1618,7 +1618,7 @@
       <c r="W21" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry
+Gold Camry,
 Supv Rx</t>
         </is>
       </c>
@@ -2345,11 +2345,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2386,11 +2382,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2468,7 +2460,11 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2:30 PM START</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
@@ -2518,11 +2514,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2:30 PM START</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -2628,7 +2620,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>GOOGLE MEET LINK</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2677,7 +2669,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>https://meet.google.com/pga-dzhx-obr</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2722,7 +2714,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2784,7 +2776,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://meet.google.com/pga-dzhx-obr</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2827,7 +2819,11 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Please click on the link below to join this meeting</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
@@ -2863,16 +2859,8 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
@@ -2923,12 +2911,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2976,12 +2964,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3021,12 +3009,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3070,12 +3058,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3119,12 +3107,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3172,12 +3160,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3225,12 +3213,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3266,12 +3254,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3307,12 +3295,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3348,12 +3336,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3401,12 +3389,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3450,12 +3438,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3491,12 +3479,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3532,12 +3520,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3573,12 +3561,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3614,12 +3602,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3653,8 +3641,16 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3753,7 +3749,11 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3786,7 +3786,11 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -2460,11 +2460,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2:30 PM START</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
@@ -2514,7 +2510,11 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2:30 PM START</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -2618,11 +2618,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>GOOGLE MEET LINK</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
@@ -2669,7 +2665,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://meet.google.com/pga-dzhx-obr</t>
+          <t>GOOGLE MEET LINK</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2714,7 +2710,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>https://meet.google.com/pga-dzhx-obr</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2776,7 +2772,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2821,7 +2817,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2860,7 +2856,11 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Please click on the link below to join this meeting</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
@@ -2909,16 +2909,8 @@
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
@@ -2964,12 +2956,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3009,12 +3001,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3058,12 +3050,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3107,12 +3099,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3160,12 +3152,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3213,12 +3205,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3254,12 +3246,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3295,12 +3287,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3336,12 +3328,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3389,12 +3381,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3438,12 +3430,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3479,12 +3471,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3520,12 +3512,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3561,12 +3553,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3602,12 +3594,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3643,12 +3635,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3682,8 +3674,16 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -3749,11 +3749,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3788,7 +3784,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3823,7 +3819,11 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -2564,11 +2564,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>PAID SUPV MEETING</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
@@ -2618,7 +2614,11 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>PAID SUPV MEETING</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
@@ -2954,11 +2954,7 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>Ashley P</t>
@@ -2999,11 +2995,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>Brianna</t>
@@ -3048,11 +3040,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>DJ</t>
@@ -3097,11 +3085,7 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>Heidi</t>
@@ -3150,11 +3134,7 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>Ian</t>
@@ -3203,11 +3183,7 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>Jake S</t>
@@ -3244,11 +3220,7 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>Jeremiah</t>
@@ -3285,11 +3257,7 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>Jerry S</t>
@@ -3326,11 +3294,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>Katherine</t>
@@ -3379,11 +3343,7 @@
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>Kim</t>
@@ -3428,11 +3388,7 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>Lashaun</t>
@@ -3469,11 +3425,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>Michelle</t>
@@ -3510,11 +3462,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>Nate</t>
@@ -3551,11 +3499,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>Nick</t>
@@ -3592,11 +3536,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>Palmer</t>
@@ -3633,11 +3573,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>Qiana</t>
@@ -3674,11 +3610,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>Sarah</t>

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -2220,7 +2220,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>DC5-ITEM LVEL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -2333,7 +2333,11 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4:45 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2370,7 +2374,11 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2411,7 +2419,11 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2423,7 +2435,11 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2:30 PM START</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2448,7 +2464,11 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #402, DARLINGTON</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2498,7 +2518,11 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>149 WELLS ST</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2512,7 +2536,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2:30 PM START</t>
+          <t>PAID SUPV MEETING</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2552,7 +2576,11 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JkKC5qTmkRz</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -2564,7 +2592,11 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>GOOGLE MEET LINK</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
@@ -2616,7 +2648,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>PAID SUPV MEETING</t>
+          <t>https://meet.google.com/pga-dzhx-obr</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2650,9 +2682,21 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
@@ -2665,7 +2709,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>GOOGLE MEET LINK</t>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2695,9 +2739,22 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
@@ -2710,7 +2767,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://meet.google.com/pga-dzhx-obr</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2722,15 +2779,10 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
@@ -2757,9 +2809,21 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
@@ -2772,7 +2836,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>Please click on the link below to join this meeting</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2784,10 +2848,15 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2802,9 +2871,21 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
@@ -2815,11 +2896,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Please have your camera on for this meeting</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
@@ -2847,18 +2924,34 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2888,9 +2981,21 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -2909,8 +3014,16 @@
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
@@ -2938,9 +3051,21 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -2954,10 +3079,14 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2987,18 +3116,34 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Keilah</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3040,10 +3185,14 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3085,10 +3234,14 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3134,10 +3287,14 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3183,10 +3340,14 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3220,10 +3381,14 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3257,10 +3422,14 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3294,10 +3463,14 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3343,10 +3516,14 @@
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3383,15 +3560,23 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3425,10 +3610,14 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3462,10 +3651,14 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3499,10 +3692,14 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3536,10 +3733,14 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3574,11 +3775,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3611,11 +3808,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -3648,7 +3841,11 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3681,7 +3878,11 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3714,11 +3915,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3751,11 +3948,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -3999,11 +4192,7 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
           <t>Gold Camry</t>
@@ -4500,7 +4689,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -4189,13 +4189,17 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr"/>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>Gold Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
@@ -4226,12 +4230,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -4267,12 +4271,12 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -4308,17 +4312,18 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Outpatient</t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
@@ -4347,22 +4352,9 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Outpatient</t>
-        </is>
-      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA91"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,24 +550,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 4 SB 10</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -583,24 +623,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -620,16 +700,32 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1911,10 +2007,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
@@ -1976,14 +2076,10 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -2016,7 +2112,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -2045,10 +2141,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -2081,7 +2181,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -2106,7 +2206,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2159,7 +2259,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -2189,21 +2289,9 @@
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -2232,26 +2320,14 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2278,16 +2354,8 @@
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Via</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2304,7 +2372,11 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2343,7 +2415,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2361,7 +2433,11 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>LEAVE OFFICE BY 5:30 AM</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2384,7 +2460,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2404,7 +2480,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>LEAVE OFFICE BY 5:30 AM</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2429,7 +2505,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1030, OSHKOSH</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2449,7 +2525,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2474,7 +2550,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1030, OSHKOSH</t>
+          <t>414 DOCTORS COURT SUITE 100</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2503,7 +2579,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2528,7 +2604,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>414 DOCTORS COURT SUITE 100</t>
+          <t>https://goo.gl/maps/7jsxtRm7nJ82</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2561,7 +2637,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
+          <t>3509 DEWEY ST,  SUITE 100</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2586,7 +2662,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7jsxtRm7nJ82</t>
+          <t>APPROX 8:30 AM START</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2619,7 +2695,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>3509 DEWEY ST,  SUITE 100</t>
+          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2640,7 +2716,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>APPROX 8:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2666,11 +2742,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2701,17 +2773,13 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA VISION #1151, OSHKOSH</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
@@ -2726,9 +2794,21 @@
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -2746,20 +2826,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>AURORA VISION #1151, OSHKOSH</t>
+          <t>700 N WESTHAVEN DR</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2767,7 +2846,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2784,21 +2863,9 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -2816,19 +2883,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Sante Fe</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>700 N WESTHAVEN DR</t>
+          <t>https://goo.gl/maps/eNMezENBFiv</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2836,7 +2904,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2878,7 +2946,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2888,15 +2956,15 @@
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/eNMezENBFiv</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Please click on the link below to join this meeting</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
@@ -2931,7 +2999,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2940,9 +3008,22 @@
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2988,7 +3069,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2999,20 +3080,15 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima, Equip</t>
-        </is>
-      </c>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -3058,7 +3134,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3067,16 +3143,8 @@
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
@@ -3098,10 +3166,14 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -3123,7 +3195,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3155,14 +3227,10 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -3177,12 +3245,28 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Keilah</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
@@ -3204,10 +3288,14 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -3229,7 +3317,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3253,7 +3341,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3282,7 +3370,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3299,21 +3387,9 @@
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3335,7 +3411,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
+          <t>2000 E LAYTON AVENUE SUITE 150</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3376,7 +3452,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2000 E LAYTON AVENUE SUITE 150</t>
+          <t>https://goo.gl/maps/saDijnsPM7S2</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3394,7 +3470,11 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEAVE OFFICE 5:45 AM </t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3415,11 +3495,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/saDijnsPM7S2</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -3437,7 +3513,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEAVE OFFICE 5:45 AM </t>
+          <t>8:00 AM START (SPLIT CREW)</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3459,9 +3535,21 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
@@ -3478,7 +3566,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>8:00 AM START (SPLIT CREW)</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3502,17 +3590,17 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Gold Camry available, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3531,7 +3619,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>REEDSBURG AREA MEDICAL CENTER VIKING OP</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3553,21 +3641,9 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
@@ -3584,7 +3660,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>REEDSBURG AREA MEDICAL CENTER VIKING OP</t>
+          <t>150 VIKING DR</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3625,7 +3701,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>150 VIKING DR</t>
+          <t>https://goo.gl/maps/DEqqzC59oPp</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3666,7 +3742,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DEqqzC59oPp</t>
+          <t xml:space="preserve">8:00 AM START </t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3707,7 +3783,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t xml:space="preserve">8:00 AM START </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3748,7 +3824,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>REEDSBURG MEDICAL HOSPITAL</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3781,7 +3857,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>REEDSBURG MEDICAL HOSPITAL</t>
+          <t>2000 N DEWEY STREET</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3814,7 +3890,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>2000 N DEWEY STREET</t>
+          <t>https://goo.gl/maps/2JLNrZ5ZgBU2</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3851,7 +3927,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2JLNrZ5ZgBU2</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3888,7 +3964,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>REEDSBURG MEDICAL CLINIC OUTPATIENT</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3921,7 +3997,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>REEDSBURG MEDICAL CLINIC OUTPATIENT</t>
+          <t>1900 N DEWEY STREET</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3954,7 +4030,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>1900 N DEWEY STREET</t>
+          <t>https://goo.gl/maps/6QCj8w4WsYw</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3987,7 +4063,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6QCj8w4WsYw</t>
+          <t>Split crew to start, meet @ the Clinic when done</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -4020,7 +4096,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Split crew to start, meet @ the Clinic when done</t>
+          <t>Sue - Drive to Deforest Park n Ride, Rockford car will pick you up on their way @ 7:00 am</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -4053,7 +4129,8 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Sue - Drive to Deforest Park n Ride, Rockford car will pick you up on their way @ 7:00 am</t>
+          <t>Deforest Park n Ride address:
+5012 Elephant Trail, DeForest</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4084,12 +4161,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Deforest Park n Ride address:
-5012 Elephant Trail, DeForest</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -4117,9 +4189,21 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>@ Store, Equip, Supv Inpatient</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -4148,17 +4232,13 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
-          <t>@ Store, Equip, Supv Inpatient</t>
+          <t>Gold Camry</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -4411,7 +4491,11 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
@@ -4442,7 +4526,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4475,7 +4559,7 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -4508,7 +4592,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
+          <t>321 N ALPINE ROAD</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -4541,7 +4625,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>321 N ALPINE ROAD</t>
+          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -4572,11 +4656,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -4604,9 +4684,21 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
@@ -4635,17 +4727,17 @@
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Red Camry</t>
         </is>
       </c>
       <c r="T85" t="inlineStr"/>
@@ -4676,17 +4768,17 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
@@ -4717,12 +4809,12 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -4758,12 +4850,12 @@
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -4799,12 +4891,12 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -4821,88 +4913,6 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -4232,13 +4232,17 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr"/>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Gold Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -4269,12 +4273,12 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4310,12 +4314,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -4351,17 +4355,18 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Outpatient</t>
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
@@ -4390,22 +4395,9 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Outpatient</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -2779,7 +2779,11 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
@@ -2846,7 +2850,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2904,7 +2908,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>Please click on the link below to join this meeting</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2960,11 +2964,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Please click on the link below to join this meeting</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
@@ -3742,7 +3742,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t xml:space="preserve">8:00 AM START </t>
+          <t xml:space="preserve">APPROX 8:00 AM START </t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA89"/>
+  <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,7 +1091,11 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Check in with Watertown Hardware store after</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
@@ -1143,22 +1147,9 @@
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Equip
-(no car avail)</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
@@ -1193,9 +1184,22 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Equip
+(no car avail)</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1365,11 +1369,7 @@
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LEAVE OFFICE 5:15 AM </t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
@@ -1467,7 +1467,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">LEAVE OFFICE 5:15 AM </t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1549,7 +1549,7 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1102, HARTFORD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1640 E SUMNER ST, SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1102, HARTFORD</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1779,7 +1779,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/umuyQZyC8FT2</t>
+          <t>1640 E SUMNER ST, SUITE 100</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1858,7 +1858,11 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/umuyQZyC8FT2</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
@@ -1868,14 +1872,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1938,21 +1938,13 @@
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Check in with Watertown Hardware store after</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1961,13 +1953,12 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -2007,14 +1998,10 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
@@ -2035,10 +2022,15 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
@@ -2076,10 +2068,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -2089,9 +2085,21 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -2100,7 +2108,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -2141,25 +2149,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>6:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2233,11 +2233,7 @@
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
@@ -2247,7 +2243,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2289,9 +2285,21 @@
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -2308,7 +2316,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2320,7 +2328,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2349,13 +2357,21 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>WATERTOWN ACE HARDWARE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Via</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2372,11 +2388,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2386,7 +2398,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>401 BERNARD ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2415,7 +2427,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2427,17 +2439,13 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AG3mX4iedXdJtM9P6</t>
+          <t>WATERTOWN ACE HARDWARE</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>LEAVE OFFICE BY 5:30 AM</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2460,7 +2468,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2472,7 +2480,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>5:45 am meet for Grafton crew</t>
+          <t>401 BERNARD ST</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2480,7 +2488,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>LEAVE OFFICE BY 5:30 AM</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2505,7 +2513,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1030, OSHKOSH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2519,13 +2527,17 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/AG3mX4iedXdJtM9P6</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2550,7 +2562,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>414 DOCTORS COURT SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1030, OSHKOSH</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2559,27 +2571,18 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>5:15 am meet for Grafton crew</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2604,7 +2607,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7jsxtRm7nJ82</t>
+          <t>414 DOCTORS COURT SUITE 100</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2617,27 +2620,14 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>3509 DEWEY ST,  SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2662,7 +2652,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>APPROX 8:30 AM START</t>
+          <t>https://goo.gl/maps/7jsxtRm7nJ82</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2677,25 +2667,25 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store,
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
+          <t>3509 DEWEY ST,  SUITE 100</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2716,7 +2706,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>APPROX 8:30 AM START</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2731,18 +2721,27 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2773,7 +2772,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>AURORA VISION #1151, OSHKOSH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2788,31 +2787,19 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -2842,7 +2829,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>700 N WESTHAVEN DR</t>
+          <t>AURORA VISION #1151, OSHKOSH</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2857,19 +2844,31 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -2900,7 +2899,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eNMezENBFiv</t>
+          <t>700 N WESTHAVEN DR</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2915,18 +2914,17 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2960,7 +2958,11 @@
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/eNMezENBFiv</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2969,12 +2971,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -3008,22 +3010,9 @@
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -3039,15 +3028,19 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -3080,15 +3073,20 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -3104,15 +3102,20 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -3143,8 +3146,16 @@
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
@@ -3161,19 +3172,15 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -3222,12 +3229,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3262,11 +3269,7 @@
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
@@ -3283,19 +3286,15 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -3317,7 +3316,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3336,17 +3335,17 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3370,7 +3369,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3387,8 +3386,16 @@
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Via</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3411,7 +3418,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2000 E LAYTON AVENUE SUITE 150</t>
+          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3428,9 +3435,21 @@
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3452,7 +3471,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/saDijnsPM7S2</t>
+          <t>2000 E LAYTON AVENUE SUITE 150</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3469,13 +3488,21 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEAVE OFFICE 5:45 AM </t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3495,7 +3522,11 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/saDijnsPM7S2</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -3511,11 +3542,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>8:00 AM START (SPLIT CREW)</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3535,21 +3562,9 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
@@ -3564,11 +3579,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3590,17 +3601,17 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Gold Camry available, Equip</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3619,7 +3630,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>REEDSBURG AREA MEDICAL CENTER VIKING OP</t>
+          <t xml:space="preserve">LEAVE OFFICE 5:45 AM </t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3641,9 +3652,21 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
@@ -3660,7 +3683,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>150 VIKING DR</t>
+          <t>8:00 AM START (SPLIT CREW)</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3701,7 +3724,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DEqqzC59oPp</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3742,7 +3765,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t xml:space="preserve">APPROX 8:00 AM START </t>
+          <t>REEDSBURG AREA MEDICAL CENTER VIKING OP</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3783,7 +3806,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>150 VIKING DR</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3824,7 +3847,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>REEDSBURG MEDICAL HOSPITAL</t>
+          <t>https://goo.gl/maps/DEqqzC59oPp</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3857,7 +3880,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>2000 N DEWEY STREET</t>
+          <t xml:space="preserve">8:00 AM START </t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3890,7 +3913,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2JLNrZ5ZgBU2</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3917,17 +3940,13 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>REEDSBURG MEDICAL HOSPITAL</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3954,17 +3973,13 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>REEDSBURG MEDICAL CLINIC OUTPATIENT</t>
+          <t>2000 N DEWEY STREET</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3991,13 +4006,17 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>1900 N DEWEY STREET</t>
+          <t>https://goo.gl/maps/2JLNrZ5ZgBU2</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4024,13 +4043,17 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6QCj8w4WsYw</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4063,7 +4086,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Split crew to start, meet @ the Clinic when done</t>
+          <t>REEDSBURG MEDICAL CLINIC OUTPATIENT</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -4096,7 +4119,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Sue - Drive to Deforest Park n Ride, Rockford car will pick you up on their way @ 7:00 am</t>
+          <t>1900 N DEWEY STREET</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -4129,8 +4152,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Deforest Park n Ride address:
-5012 Elephant Trail, DeForest</t>
+          <t>https://goo.gl/maps/6QCj8w4WsYw</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4161,7 +4183,11 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Split crew to start, meet @ the Clinic when done</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -4189,21 +4215,13 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>@ Store, Equip, Supv Inpatient</t>
-        </is>
-      </c>
+          <t>Casey - Drive to Deforest Park n Ride, Rockford car will pick you up on their way @ 7:00 am</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -4230,21 +4248,14 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Deforest Park n Ride address:
+5012 Elephant Trail, DeForest</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
@@ -4271,21 +4282,9 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -4314,17 +4313,17 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip, Supv Inpatient</t>
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
@@ -4355,18 +4354,17 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Outpatient</t>
+          <t>Gold Camry</t>
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
@@ -4395,9 +4393,21 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -4424,9 +4434,21 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -4453,9 +4475,21 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
@@ -4482,13 +4516,22 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Outpatient</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
@@ -4516,11 +4559,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
@@ -4549,11 +4588,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
-        </is>
-      </c>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
@@ -4584,7 +4619,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>321 N ALPINE ROAD</t>
+          <t>5:00 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -4617,7 +4652,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -4648,7 +4683,11 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -4676,21 +4715,13 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
@@ -4717,21 +4748,13 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>Red Camry</t>
-        </is>
-      </c>
+          <t>321 N ALPINE ROAD</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
@@ -4758,21 +4781,13 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
@@ -4799,21 +4814,9 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
@@ -4842,17 +4845,17 @@
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T88" t="inlineStr"/>
@@ -4883,17 +4886,17 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="T89" t="inlineStr"/>
@@ -4905,6 +4908,207 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -3014,11 +3014,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Ashley P</t>
